--- a/assets/docs/primers_volunteering.xlsx
+++ b/assets/docs/primers_volunteering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/987338860/Documents/github/andersonbrito.github.io/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D92C250-8B7E-F844-AC51-6894FE1A3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997A1C3D-6E0A-A444-BC97-003DD5F73F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27240" windowHeight="16940" xr2:uid="{9F161911-0111-BF40-ADB6-F7FC1FC77F43}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="18660" windowHeight="17500" xr2:uid="{9F161911-0111-BF40-ADB6-F7FC1FC77F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>Identificação da Função/Posição e Período:</t>
+  </si>
+  <si>
+    <t>Descrição da Organização/Associação</t>
+  </si>
+  <si>
+    <t>Função e Papel do Autor na Organização</t>
+  </si>
+  <si>
+    <t>Contribuições e Atividades Específicas</t>
+  </si>
+  <si>
+    <t>Iniciativa em conjunto com a ONU que reúne pessoas, organizações, redes, sociedade civil, empresas e plataformas de mídia para compartilhar informações confiáveis e precisas sobre a COVID-19.</t>
+  </si>
+  <si>
+    <t>Fui um guia da equipe Halo entre 2022 e 2023</t>
+  </si>
+  <si>
+    <t>Como guia da equipe Halo participei de campanhas de conscientização quanto a importância da vacinação e os impactos da COVID-19.</t>
+  </si>
+  <si>
+    <t>As atividades de comunicação científica da equipe halo eram articuladas entre membros com diferentes formações científicas relevantes aos temas, e as campanhas se davam em diferentes países e línguas.</t>
+  </si>
+  <si>
+    <t>seções</t>
+  </si>
+  <si>
+    <t>Construa um texto corrido, sem títulos de seções, com 500 caracteres ou 75 palavras, que siga a estrutura abaixo. Utilize as informações disponíveis para inspirar o texto, e busque informações na internet para complementar se necessário.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +111,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +442,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86AC884-349B-DE45-BD4B-D9A0278036CC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="A2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>